--- a/src/test/resources/ISP_DatabaseTestData.xlsx
+++ b/src/test/resources/ISP_DatabaseTestData.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nishant\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C596D1-906B-4CE9-8A01-97D9111F8FAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1532E0E7-5B9D-4A2C-9AEF-D268B48A6E0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralInfo_Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralInfo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>training@pragra.co</t>
   </si>
@@ -119,13 +107,31 @@
   </si>
   <si>
     <t>Ferguson</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>2894895546</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>StudentCell</t>
+  </si>
+  <si>
+    <t>5555555555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,10 +200,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -310,7 +314,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -504,40 +508,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328BE692-2F66-44D6-87C9-27D55616EA24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -547,124 +551,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876396F5-5F34-41A4-B7B5-162132375404}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+    <row r="2" spans="1:17">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="4">
         <v>101</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2">
-        <v>2894895546</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ISP_DatabaseTestData.xlsx
+++ b/src/test/resources/ISP_DatabaseTestData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="GeneralInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>training@pragra.co</t>
   </si>
@@ -125,13 +125,31 @@
   </si>
   <si>
     <t>5555555555</t>
+  </si>
+  <si>
+    <t>Homestay Required</t>
+  </si>
+  <si>
+    <t>Another Homestay</t>
+  </si>
+  <si>
+    <t>Homestay Coordinator</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,11 +207,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -202,6 +233,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,27 +540,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -536,7 +568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,35 +583,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" customWidth="1"/>
+    <col min="20" max="20" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -631,8 +666,17 @@
       <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -683,6 +727,15 @@
       </c>
       <c r="Q2" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ISP_DatabaseTestData.xlsx
+++ b/src/test/resources/ISP_DatabaseTestData.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nishant\IdeaProjects\wd3seleniumcoopframework\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCBD2BF-6A2D-4D31-85C1-B1474D3A4AE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="GeneralInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="AIEducationGoals" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>training@pragra.co</t>
   </si>
@@ -125,13 +126,166 @@
   </si>
   <si>
     <t>5555555555</t>
+  </si>
+  <si>
+    <t>CurrentGrade</t>
+  </si>
+  <si>
+    <t>ApplyForGrade</t>
+  </si>
+  <si>
+    <t>AgencyAssisting</t>
+  </si>
+  <si>
+    <t>AgencyFullName</t>
+  </si>
+  <si>
+    <t>AgencyAssistingEmail</t>
+  </si>
+  <si>
+    <t>AgencyStreetAddress</t>
+  </si>
+  <si>
+    <t>AgencyCity</t>
+  </si>
+  <si>
+    <t>AgencyProvince</t>
+  </si>
+  <si>
+    <t>AgencyCountry</t>
+  </si>
+  <si>
+    <t>AgencyPostalCode</t>
+  </si>
+  <si>
+    <t>CounsellorName</t>
+  </si>
+  <si>
+    <t>CounsellorEmail</t>
+  </si>
+  <si>
+    <t>CounsellorPhone</t>
+  </si>
+  <si>
+    <t>CurrentSchool</t>
+  </si>
+  <si>
+    <t>SchoolWebsite</t>
+  </si>
+  <si>
+    <t>SelectYear</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>CanadianSchool</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>OtherGoal</t>
+  </si>
+  <si>
+    <t>StudiedEnglishYears</t>
+  </si>
+  <si>
+    <t>IELTSscore</t>
+  </si>
+  <si>
+    <t>TOEFLScore</t>
+  </si>
+  <si>
+    <t>HearAboutSchool</t>
+  </si>
+  <si>
+    <t>Newspaper</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>WPP</t>
+  </si>
+  <si>
+    <t>WPP Group</t>
+  </si>
+  <si>
+    <t>wppgroup@xyz.com</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>M5C4V6</t>
+  </si>
+  <si>
+    <t>Govt School</t>
+  </si>
+  <si>
+    <t>www.govtschool.com</t>
+  </si>
+  <si>
+    <t>Montessori school</t>
+  </si>
+  <si>
+    <t>Time Management</t>
+  </si>
+  <si>
+    <t>Explore and try new things</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>National Post</t>
+  </si>
+  <si>
+    <t>45 Main Street</t>
+  </si>
+  <si>
+    <t>Jack Voight</t>
+  </si>
+  <si>
+    <t>jack@gmail.com</t>
+  </si>
+  <si>
+    <t>SchoolAttended</t>
+  </si>
+  <si>
+    <t>SpecialLearningNeeds</t>
+  </si>
+  <si>
+    <t>Not required</t>
+  </si>
+  <si>
+    <t>24-July-2011</t>
+  </si>
+  <si>
+    <t>28-June-2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +305,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,10 +358,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -202,8 +371,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -262,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -314,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -508,27 +693,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -536,7 +721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,14 +736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -579,7 +764,7 @@
     <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -632,7 +817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -689,4 +874,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51AB4E0-E11E-4626-82A7-EC5057654936}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="10">
+        <v>2894567893</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="10">
+        <v>2018</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="10">
+        <v>18</v>
+      </c>
+      <c r="X2" s="10">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{4291B47A-121A-43DB-BB61-B648540D07B9}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{3D9E3BB3-F39E-428D-B718-7C82B8A07217}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{A70BB0FB-8A1A-4BFD-BD82-43901FBD7B6C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/src/test/resources/ISP_DatabaseTestData.xlsx
+++ b/src/test/resources/ISP_DatabaseTestData.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23023"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poona\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{EC33CCBD-8323-487D-B67F-0532CCD9A895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B9F21B9-F49D-42FF-9C1D-8AAD231D334C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="2" xr2:uid="{1532E0E7-5B9D-4A2C-9AEF-D268B48A6E0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralInfo_Data" sheetId="2" r:id="rId2"/>
+    <sheet name="AdditionalInfoIst" sheetId="3" r:id="rId3"/>
+    <sheet name="MedicalInfoPage" sheetId="4" r:id="rId4"/>
+    <sheet name="SearchStudent" sheetId="5" r:id="rId5"/>
+    <sheet name="AIExcel" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +38,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
   <si>
     <t>training@pragra.co</t>
   </si>
@@ -34,21 +52,33 @@
     <t>Testing2019</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reason?</t>
+  </si>
+  <si>
+    <t>ESIS_ID</t>
+  </si>
+  <si>
+    <t>Active?</t>
+  </si>
+  <si>
     <t>FirstName</t>
   </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
     <t>StudentPhone</t>
   </si>
   <si>
-    <t>NickName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
     <t>BirthDate</t>
   </si>
   <si>
@@ -67,24 +97,24 @@
     <t>PrimaryLanguage</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Reason?</t>
-  </si>
-  <si>
-    <t>ESIS_ID</t>
-  </si>
-  <si>
-    <t>Active?</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
     <t>Exchange Student</t>
   </si>
   <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Ferguson</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>25-June-1990</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -97,41 +127,175 @@
     <t>English</t>
   </si>
   <si>
-    <t>25-June-1990</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Ferguson</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>2894895546</t>
-  </si>
-  <si>
-    <t>Weeks</t>
-  </si>
-  <si>
-    <t>StudentCell</t>
-  </si>
-  <si>
-    <t>5555555555</t>
+    <t>Parent/Agent Email</t>
+  </si>
+  <si>
+    <t>Who should the school Invoice?</t>
+  </si>
+  <si>
+    <t>What email address should the Invoice be sent to?</t>
+  </si>
+  <si>
+    <t>Method of interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.D. </t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>I.D of Social Media</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Fee Invoice</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Medications</t>
+  </si>
+  <si>
+    <t>Insects</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>If yes, please explain:</t>
+  </si>
+  <si>
+    <t>If yes, please describe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of last Tetanus shot:_x000D_
+</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>If any of the above applies, please provide dates of illness:</t>
+  </si>
+  <si>
+    <t>If any of the above applies, please provide more information:</t>
+  </si>
+  <si>
+    <t>Please list any other health issues:</t>
+  </si>
+  <si>
+    <t>Family Doctor Name</t>
+  </si>
+  <si>
+    <t>Family Doctor Phone Number</t>
+  </si>
+  <si>
+    <t>Family Dentist Name</t>
+  </si>
+  <si>
+    <t>Family Dentist Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     DPTBHIB-HIB_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Booster
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR (Measles, Mumps, Rubella)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Hepatitis B_x000D_
+</t>
+  </si>
+  <si>
+    <t>Always check the food label</t>
+  </si>
+  <si>
+    <t>in Pets with Health Conditions</t>
+  </si>
+  <si>
+    <t>Benadryl Ultratabs</t>
+  </si>
+  <si>
+    <t>redness and swelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sensitivity allergic reaction</t>
+  </si>
+  <si>
+    <t>it safe to get care for my other medical conditions during this time</t>
+  </si>
+  <si>
+    <t>Mental health includes our emotional, psychological, and social well-being</t>
+  </si>
+  <si>
+    <t>current concerns and mood disturbance after diagnosis of life-threatening disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you taking your medicine this morning? ... Yes and no.</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Acute illness situations Bees and other stingers Included here are stings or burns</t>
+  </si>
+  <si>
+    <t>illiness cure</t>
+  </si>
+  <si>
+    <t>Illnesses &amp; Infections. Illnesses and infections. COVID-19 and your child</t>
+  </si>
+  <si>
+    <t>heart disease,cancer,lung disease,accidents</t>
+  </si>
+  <si>
+    <t>Dr.Fauchi</t>
+  </si>
+  <si>
+    <t>1800-416-211</t>
+  </si>
+  <si>
+    <t>Dr.Sana</t>
+  </si>
+  <si>
+    <t>416-233-2012</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>FB001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +315,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF010101"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +350,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -189,21 +386,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -262,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -314,7 +614,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -508,21 +808,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328BE692-2F66-44D6-87C9-27D55616EA24}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
@@ -530,18 +830,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -551,142 +851,1280 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876396F5-5F34-41A4-B7B5-162132375404}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="4">
         <v>101</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>2894895546</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>22</v>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511A1F67-CDF5-4C07-9747-FC190A067A74}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1E506C24-7EFD-46DF-ABD4-D1E85CCE5D77}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{E8F2D34D-4B22-40AF-853A-D1D13F3B63F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591D58F2-C524-47FF-87D2-E8461C0E5D6F}">
+  <dimension ref="A1:AN17"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P1" sqref="A1:W2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" customWidth="1"/>
+    <col min="19" max="19" width="27.140625" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" customWidth="1"/>
+    <col min="23" max="23" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="10" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="10" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="17">
+        <v>44006</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="20">
+        <v>44008</v>
+      </c>
+      <c r="U2" s="18">
+        <v>43935</v>
+      </c>
+      <c r="V2" s="19">
+        <v>43997</v>
+      </c>
+      <c r="W2" s="19">
+        <v>43985</v>
+      </c>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+    </row>
+    <row r="3" spans="1:40" s="10" customFormat="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="13"/>
+    </row>
+    <row r="4" spans="1:40" s="10" customFormat="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="13"/>
+    </row>
+    <row r="5" spans="1:40" s="10" customFormat="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="13"/>
+    </row>
+    <row r="6" spans="1:40" s="10" customFormat="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="13"/>
+    </row>
+    <row r="7" spans="1:40" s="10" customFormat="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="13"/>
+    </row>
+    <row r="8" spans="1:40" s="10" customFormat="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="13"/>
+    </row>
+    <row r="9" spans="1:40" s="10" customFormat="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="13"/>
+    </row>
+    <row r="10" spans="1:40" s="10" customFormat="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="13"/>
+    </row>
+    <row r="11" spans="1:40" s="10" customFormat="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="13"/>
+    </row>
+    <row r="12" spans="1:40" s="10" customFormat="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="13"/>
+    </row>
+    <row r="13" spans="1:40" s="10" customFormat="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="13"/>
+    </row>
+    <row r="14" spans="1:40" s="10" customFormat="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="13"/>
+    </row>
+    <row r="15" spans="1:40" s="10" customFormat="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="13"/>
+    </row>
+    <row r="16" spans="1:40" s="10" customFormat="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="13"/>
+    </row>
+    <row r="17" spans="1:40" s="10" customFormat="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8083E99F-B352-4BEA-9D14-F86F73498073}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADB9A34-0B5D-4550-A02B-AA0324CF996A}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="210">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="17">
+        <v>44006</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>44008</v>
+      </c>
+      <c r="AC2" s="18">
+        <v>43935</v>
+      </c>
+      <c r="AD2" s="19">
+        <v>43997</v>
+      </c>
+      <c r="AE2" s="19">
+        <v>43985</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6B983166-83A4-486F-8A9C-0ED92AAD655F}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{F9A4DA4B-9E7A-4CB5-BF39-55CFC7373EC8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ISP_DatabaseTestData.xlsx
+++ b/src/test/resources/ISP_DatabaseTestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
   <si>
     <t>training@pragra.co</t>
   </si>
@@ -125,6 +125,240 @@
   </si>
   <si>
     <t>5555555555</t>
+  </si>
+  <si>
+    <t>mark3@test.com</t>
+  </si>
+  <si>
+    <t>mark1@test.com</t>
+  </si>
+  <si>
+    <t>mark@test.com</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Follow Up</t>
+  </si>
+  <si>
+    <t>Former CBIE</t>
+  </si>
+  <si>
+    <t>StudentThirdEmail</t>
+  </si>
+  <si>
+    <t>StudentSecondEmail</t>
+  </si>
+  <si>
+    <t>StudentsEmail</t>
+  </si>
+  <si>
+    <t>Academic Situation</t>
+  </si>
+  <si>
+    <t>SaudiType</t>
+  </si>
+  <si>
+    <t>StudentAttribute</t>
+  </si>
+  <si>
+    <t>StudyGroupContact</t>
+  </si>
+  <si>
+    <t>Special ProjectGroup</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>Scholarship</t>
+  </si>
+  <si>
+    <t>MemberOfGrp</t>
+  </si>
+  <si>
+    <t>AppRecDate</t>
+  </si>
+  <si>
+    <t>StudentChoice</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>FootbalGroup</t>
+  </si>
+  <si>
+    <t>08-Jun-2020</t>
+  </si>
+  <si>
+    <t>Academic Year</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>EducationCode</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>GPI</t>
+  </si>
+  <si>
+    <t>IEP_Flag</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>FTE1</t>
+  </si>
+  <si>
+    <t>FTE2</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>TOEFL</t>
+  </si>
+  <si>
+    <t>IELTS</t>
+  </si>
+  <si>
+    <t>Divison</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>UploadPic</t>
+  </si>
+  <si>
+    <t>FirstEnrolled</t>
+  </si>
+  <si>
+    <t>PaidTo</t>
+  </si>
+  <si>
+    <t>SchoolStartDate</t>
+  </si>
+  <si>
+    <t>SchoolEndDate</t>
+  </si>
+  <si>
+    <t>TutionStart</t>
+  </si>
+  <si>
+    <t>TutionEnd</t>
+  </si>
+  <si>
+    <t>District LastDate</t>
+  </si>
+  <si>
+    <t>StudentAddress</t>
+  </si>
+  <si>
+    <t>SecAddress</t>
+  </si>
+  <si>
+    <t>StudentCity</t>
+  </si>
+  <si>
+    <t>StudentProvince</t>
+  </si>
+  <si>
+    <t>StudentCountry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StudentPostalCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>LivingwithParents</t>
+  </si>
+  <si>
+    <t>25-Aug-2020</t>
+  </si>
+  <si>
+    <t>25-Jun-2020</t>
+  </si>
+  <si>
+    <t>25-Jun-2021</t>
+  </si>
+  <si>
+    <t>10-Jun-2021</t>
+  </si>
+  <si>
+    <t>25-Sep-2021</t>
+  </si>
+  <si>
+    <t>28-Jun-2021</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>M2J3L4</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>1110,University Ave</t>
+  </si>
+  <si>
+    <t>234,Kippling DR</t>
   </si>
 </sst>
 </file>
@@ -193,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -202,6 +436,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +746,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,10 +790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,9 +815,40 @@
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" customWidth="1"/>
+    <col min="32" max="32" width="9" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" customWidth="1"/>
+    <col min="35" max="35" width="13.5703125" customWidth="1"/>
+    <col min="48" max="48" width="10.42578125" customWidth="1"/>
+    <col min="49" max="49" width="12.140625" customWidth="1"/>
+    <col min="50" max="50" width="15.28515625" customWidth="1"/>
+    <col min="51" max="51" width="15.5703125" customWidth="1"/>
+    <col min="52" max="52" width="14.85546875" customWidth="1"/>
+    <col min="53" max="53" width="12" customWidth="1"/>
+    <col min="54" max="54" width="13.42578125" customWidth="1"/>
+    <col min="55" max="55" width="16.5703125" customWidth="1"/>
+    <col min="56" max="56" width="18.28515625" customWidth="1"/>
+    <col min="57" max="57" width="16.28515625" customWidth="1"/>
+    <col min="58" max="58" width="12" customWidth="1"/>
+    <col min="59" max="60" width="16.140625" customWidth="1"/>
+    <col min="61" max="61" width="17.7109375" customWidth="1"/>
+    <col min="62" max="62" width="12" customWidth="1"/>
+    <col min="63" max="63" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:63">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -631,8 +900,146 @@
       <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:63">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -684,9 +1091,149 @@
       <c r="Q2" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="R2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>34567</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>200006</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>234</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>80</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>90</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>85</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>980</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>780</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1"/>
+    <hyperlink ref="Y2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/ISP_DatabaseTestData.xlsx
+++ b/src/test/resources/ISP_DatabaseTestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nishant\IdeaProjects\wd3seleniumcoopframework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCBD2BF-6A2D-4D31-85C1-B1474D3A4AE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF77EFD-217C-47C2-8CBB-A4ED1763C14E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="GeneralInfo" sheetId="2" r:id="rId2"/>
-    <sheet name="AIEducationGoals" sheetId="3" r:id="rId3"/>
+    <sheet name="AdditionalInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="SearchStudent" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
   <si>
     <t>training@pragra.co</t>
   </si>
@@ -276,6 +277,191 @@
   </si>
   <si>
     <t>28-June-2014</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Shiva</t>
+  </si>
+  <si>
+    <t>Parent/Agent Email</t>
+  </si>
+  <si>
+    <t>Who should the school Invoice?</t>
+  </si>
+  <si>
+    <t>What email address should the Invoice be sent to?</t>
+  </si>
+  <si>
+    <t>Method of interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.D. </t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>I.D of Social Media</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Fee Invoice</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Medications</t>
+  </si>
+  <si>
+    <t>Insects</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>HealthConcernExp  If yes, please explain:</t>
+  </si>
+  <si>
+    <t>MentalExp  If yes, please explain:</t>
+  </si>
+  <si>
+    <t>ConcernLifeExpl If yes, please explain:</t>
+  </si>
+  <si>
+    <t>medication regularly If yes, please describe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of last Tetanus shot:_x000D_
+</t>
+  </si>
+  <si>
+    <t>If any of the above applies, please provide dates of illness:</t>
+  </si>
+  <si>
+    <t>If any of the above applies, please provide more information:</t>
+  </si>
+  <si>
+    <t>other medical conditions we should be aware of</t>
+  </si>
+  <si>
+    <t>If yes, please describe:</t>
+  </si>
+  <si>
+    <t>Please list any other health issues:</t>
+  </si>
+  <si>
+    <t>Family Doctor Name</t>
+  </si>
+  <si>
+    <t>Family Doctor Phone Number</t>
+  </si>
+  <si>
+    <t>Family Dentist Name</t>
+  </si>
+  <si>
+    <t>Family Dentist Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     DPTBHIB-HIB_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Booster
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR (Measles, Mumps, Rubella)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Hepatitis B_x000D_
+</t>
+  </si>
+  <si>
+    <t>Always check the food label</t>
+  </si>
+  <si>
+    <t>in Pets with Health Conditions</t>
+  </si>
+  <si>
+    <t>Benadryl Ultratabs</t>
+  </si>
+  <si>
+    <t>redness and swelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sensitivity allergic reaction</t>
+  </si>
+  <si>
+    <t>it safe to get care for my other medical conditions during this time</t>
+  </si>
+  <si>
+    <t>Mental health includes our emotional, psychological, and social well-being</t>
+  </si>
+  <si>
+    <t>current concerns and mood disturbance after diagnosis of life-threatening disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you taking your medicine this morning? ... Yes and no.</t>
+  </si>
+  <si>
+    <t>07-Jul-2020</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Acute illness situations Bees and other stingers Included here are stings or burns</t>
+  </si>
+  <si>
+    <t>illiness cure</t>
+  </si>
+  <si>
+    <t>Illnesses &amp; Infections. Illnesses and infections. COVID-19 and your child</t>
+  </si>
+  <si>
+    <t>heart disease,cancer,lung disease,accidents</t>
+  </si>
+  <si>
+    <t>Dr.Fauchi</t>
+  </si>
+  <si>
+    <t>1800-416-211</t>
+  </si>
+  <si>
+    <t>Dr.Sana</t>
+  </si>
+  <si>
+    <t>416-233-2012</t>
+  </si>
+  <si>
+    <t>12-Jul-2020</t>
+  </si>
+  <si>
+    <t>09-Jun-2020</t>
+  </si>
+  <si>
+    <t>14-May-2020</t>
+  </si>
+  <si>
+    <t>10-Jun-2020</t>
   </si>
 </sst>
 </file>
@@ -285,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +499,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF010101"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +532,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -357,12 +562,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -384,6 +628,67 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +1045,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,244 +1183,483 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51AB4E0-E11E-4626-82A7-EC5057654936}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AW4" sqref="AW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.7109375" customWidth="1"/>
+    <col min="44" max="44" width="27" customWidth="1"/>
+    <col min="45" max="45" width="25.42578125" customWidth="1"/>
+    <col min="46" max="46" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.7109375" customWidth="1"/>
+    <col min="50" max="50" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.85546875" customWidth="1"/>
+    <col min="52" max="52" width="17.42578125" customWidth="1"/>
+    <col min="53" max="53" width="17.28515625" customWidth="1"/>
+    <col min="54" max="55" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:61" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="AL1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS1" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT1" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY1" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ1" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI1" s="17" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:61" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="27">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="27">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="10">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="10">
+      <c r="U2" s="10">
         <v>2894567893</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="10">
+      <c r="X2" s="10">
         <v>2018</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="10">
+      <c r="AE2" s="10">
         <v>18</v>
       </c>
-      <c r="X2" s="10">
+      <c r="AF2" s="10">
         <v>7</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="AG2" s="10">
         <v>85</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>74</v>
+      </c>
+      <c r="AL2" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN2" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ2" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR2" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS2" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT2" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU2" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV2" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW2" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA2" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG2" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{4291B47A-121A-43DB-BB61-B648540D07B9}"/>
-    <hyperlink ref="O2" r:id="rId2" xr:uid="{3D9E3BB3-F39E-428D-B718-7C82B8A07217}"/>
-    <hyperlink ref="L2" r:id="rId3" xr:uid="{A70BB0FB-8A1A-4BFD-BD82-43901FBD7B6C}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{4291B47A-121A-43DB-BB61-B648540D07B9}"/>
+    <hyperlink ref="W2" r:id="rId2" xr:uid="{3D9E3BB3-F39E-428D-B718-7C82B8A07217}"/>
+    <hyperlink ref="T2" r:id="rId3" xr:uid="{A70BB0FB-8A1A-4BFD-BD82-43901FBD7B6C}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{1EEF5ECD-47BD-451E-9BA9-1EB3F8E2917E}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{8AD87E73-BA05-40CD-AFA0-6DEF197EAB51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7279F4A-13AA-42E1-A91E-9E3F9E4038CE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/ISP_DatabaseTestData.xlsx
+++ b/src/test/resources/ISP_DatabaseTestData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="GeneralInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="PlacementTesting" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>training@pragra.co</t>
   </si>
@@ -143,6 +144,33 @@
   </si>
   <si>
     <t>Parent</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Proposed Level</t>
+  </si>
+  <si>
+    <t>Overwritting Level</t>
+  </si>
+  <si>
+    <t>Retesting</t>
+  </si>
+  <si>
+    <t>Manual Placement</t>
   </si>
 </sst>
 </file>
@@ -586,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,4 +770,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ISP_DatabaseTestData.xlsx
+++ b/src/test/resources/ISP_DatabaseTestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>training@pragra.co</t>
   </si>
@@ -359,6 +359,18 @@
   </si>
   <si>
     <t>234,Kippling DR</t>
+  </si>
+  <si>
+    <t>HomeStayRequired</t>
+  </si>
+  <si>
+    <t>HomeStayCoordinator</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
 </sst>
 </file>
@@ -400,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -423,11 +435,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -440,6 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,7 +772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -790,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BM2" sqref="BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -846,9 +872,11 @@
     <col min="61" max="61" width="17.7109375" customWidth="1"/>
     <col min="62" max="62" width="12" customWidth="1"/>
     <col min="63" max="63" width="17.28515625" customWidth="1"/>
+    <col min="64" max="65" width="17.7109375" customWidth="1"/>
+    <col min="66" max="66" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:66">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1038,8 +1066,17 @@
       <c r="BK1" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="BL1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:66">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1226,6 +1263,15 @@
       </c>
       <c r="BK2" s="8" t="s">
         <v>107</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN2" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
